--- a/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
+++ b/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da0311370d0065bd/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da0311370d0065bd/Documents/GitHub/Proyecto-POO/Proyecto_Programado_1_POO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{C20AC142-C4C5-4FE2-A037-E37AA95BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC64D7A3-D587-4419-A97A-CEAFAB84D381}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{C20AC142-C4C5-4FE2-A037-E37AA95BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12AEF183-91F5-42BE-A8A9-08A4D2BA4798}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{567281F0-6732-491D-B63E-804BF2978C2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Nombre</t>
   </si>
@@ -145,6 +145,36 @@
   </si>
   <si>
     <t>Cartago, San Jose, Puntarenas, Limón, Guanacaste, Heredia, Alajuela, Maritimo</t>
+  </si>
+  <si>
+    <t>8686-8686</t>
+  </si>
+  <si>
+    <t>8787-8787</t>
+  </si>
+  <si>
+    <t>8902-0301</t>
+  </si>
+  <si>
+    <t>8383-1290</t>
+  </si>
+  <si>
+    <t>8888-8888</t>
+  </si>
+  <si>
+    <t>8467-3521</t>
+  </si>
+  <si>
+    <t>8212-2121</t>
+  </si>
+  <si>
+    <t>8347-3611</t>
+  </si>
+  <si>
+    <t>8601-0311</t>
+  </si>
+  <si>
+    <t>8000-0000</t>
   </si>
 </sst>
 </file>
@@ -532,7 +562,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,8 +594,8 @@
       <c r="B2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2">
-        <v>88888888</v>
+      <c r="C2" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>26</v>
@@ -578,8 +608,8 @@
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2">
-        <v>83831290</v>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
@@ -590,8 +620,8 @@
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="2">
-        <v>89020301</v>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
@@ -616,8 +646,8 @@
       <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2">
-        <v>87878787</v>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -630,8 +660,8 @@
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2">
-        <v>86868686</v>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -644,8 +674,8 @@
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2">
-        <v>82122121</v>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>32</v>
@@ -658,8 +688,8 @@
       <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2">
-        <v>84673521</v>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>33</v>
@@ -670,8 +700,8 @@
         <v>11</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="2">
-        <v>83473611</v>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
@@ -696,8 +726,8 @@
       <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2">
-        <v>86010311</v>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>35</v>
@@ -710,8 +740,8 @@
       <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="2">
-        <v>80000000</v>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>

--- a/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
+++ b/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da0311370d0065bd/Documents/GitHub/Proyecto-POO/Proyecto_Programado_1_POO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{C20AC142-C4C5-4FE2-A037-E37AA95BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12AEF183-91F5-42BE-A8A9-08A4D2BA4798}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{C20AC142-C4C5-4FE2-A037-E37AA95BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E20D34F-F51D-4C7A-816C-D716F4347404}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{567281F0-6732-491D-B63E-804BF2978C2D}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Cartago, Alajuela</t>
   </si>
   <si>
-    <t>Heredia, Puntarenas</t>
-  </si>
-  <si>
     <t>Marítimo, Puntarenas</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>8000-0000</t>
+  </si>
+  <si>
+    <t>Heredia, Puntarenas, Maritimo</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2518B0B-16EE-49CD-A78A-6546EB3F333F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +595,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>26</v>
@@ -609,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>27</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
@@ -661,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>31</v>
@@ -675,7 +675,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>32</v>
@@ -689,10 +689,10 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -701,10 +701,10 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -727,10 +727,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -741,10 +741,10 @@
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
+++ b/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/da0311370d0065bd/Documents/GitHub/Proyecto-POO/Proyecto_Programado_1_POO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{C20AC142-C4C5-4FE2-A037-E37AA95BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E20D34F-F51D-4C7A-816C-D716F4347404}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{C20AC142-C4C5-4FE2-A037-E37AA95BB555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E437B3CF-3650-4EA9-A56F-AC9E780C048D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{567281F0-6732-491D-B63E-804BF2978C2D}"/>
+    <workbookView xWindow="0" yWindow="312" windowWidth="13320" windowHeight="12648" xr2:uid="{567281F0-6732-491D-B63E-804BF2978C2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Nombre</t>
   </si>
@@ -175,13 +175,16 @@
   </si>
   <si>
     <t>Heredia, Puntarenas, Maritimo</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +204,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -227,7 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -242,6 +252,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2518B0B-16EE-49CD-A78A-6546EB3F333F}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="37" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,7 +632,9 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
@@ -634,7 +649,9 @@
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
@@ -699,7 +716,9 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
@@ -714,7 +733,9 @@
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="4" t="s">
         <v>30</v>
       </c>

--- a/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
+++ b/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCPC\Documents\GitHub\Proyecto-POO\Proyecto_Programado_1_POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{103BBAB8-EEB2-44AB-8D2D-994EDA49C2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="8_{103BBAB8-EEB2-44AB-8D2D-994EDA49C2FE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EBD6826-5790-4456-B498-91D5B2941D05}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{6EBD6826-5790-4456-B498-91D5B2941D05}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>jair</t>
+  </si>
+  <si>
+    <t>caleime21@gmail.com</t>
+  </si>
+  <si>
+    <t>1212-1212</t>
+  </si>
+  <si>
+    <t>Alajuela,Cartago,Guanacaste,Heredia,Limon,NA,Puntarenas,San Jose,</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -62,16 +80,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -88,10 +106,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -126,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -178,7 +196,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -289,21 +307,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -320,7 +338,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -372,20 +390,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766BEC57-07E5-470E-8428-597A9DF44937}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766BEC57-07E5-470E-8428-597A9DF44937}">
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
+++ b/Proyecto_Programado_1_POO/InteresadosNotificaciones.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCPC\Documents\GitHub\Proyecto-POO\Proyecto_Programado_1_POO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{103BBAB8-EEB2-44AB-8D2D-994EDA49C2FE}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFF8697-B43D-48C4-9E17-7570D0662225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-120" xr2:uid="{6EBD6826-5790-4456-B498-91D5B2941D05}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6EBD6826-5790-4456-B498-91D5B2941D05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,25 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>jair</t>
-  </si>
-  <si>
-    <t>caleime21@gmail.com</t>
-  </si>
-  <si>
-    <t>1212-1212</t>
-  </si>
-  <si>
-    <t>Alajuela,Cartago,Guanacaste,Heredia,Limon,NA,Puntarenas,San Jose,</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,16 +66,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -106,10 +92,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -144,7 +130,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -196,7 +182,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -307,21 +293,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -338,7 +324,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -390,35 +376,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766BEC57-07E5-470E-8428-597A9DF44937}">
-  <dimension ref="A2:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766BEC57-07E5-470E-8428-597A9DF44937}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>